--- a/biology/Médecine/Claes_Andersson/Claes_Andersson.xlsx
+++ b/biology/Médecine/Claes_Andersson/Claes_Andersson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Claes-Johan Rudolf Andersson, dit Claes Andersson, né le 30 mai 1937 à Helsinki et mort le 24 juillet 2019[1], est un psychiatre finlandais de langue suédoise.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claes-Johan Rudolf Andersson, dit Claes Andersson, né le 30 mai 1937 à Helsinki et mort le 24 juillet 2019, est un psychiatre finlandais de langue suédoise.
 Également auteur, musicien de jazz, homme politique et ancien membre de la Diète nationale de Finlande, représentant l'Alliance de gauche et la Ligue démocratique du peuple finlandais, il a été membre du Parlement finlandais en 1987-1999 et en 2007-2008.
 </t>
         </is>
@@ -512,10 +524,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Claes Andersson a étudié la médecine et s'est spécialisé en psychiatrie. Il a travaillé comme médecin au service hospitalier Tammiharju à partir de 1962 à 1967, à l'Hôpital Hesperia de 1967 à 1969 et comme médecin-chef au Veikkola Sanatorium de 1969 à 1973. Sa carrière d'écrivain a commencé en 1962 avec un recueil de poésie. Dans l'ensemble, son travail comprend plus de vingt [2] recueils de poésie, de l'ouïe et de spectacles ainsi que quelques œuvres de prose. Ses œuvres ont été traduites et publiées en sept langues. Claes Andersson y exerce la critique sociale, appelant carences humaines et sociales, souvent accentuée avec des détails médicaux.
-Claes Andersson a aussi été actif politiquement. De 1987 à 1999, puis de 2007 à 2008, il siégea au Parlement finlandais, d'abord pour la Ligue démocratique du peuple finlandais et ensuite pour l'Alliance de gauche, dont il fut le porte-parole de 1990 à 1998. En tant que candidat à l'élection présidentielle finlandaise de 1994, il a reçu 3,8 % de votes[3]. De 1995 à 1999, il a été ministre de la Culture de la Finlande[4]. En 2008, il a quitté le Parlement pour des raisons de santé.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claes Andersson a étudié la médecine et s'est spécialisé en psychiatrie. Il a travaillé comme médecin au service hospitalier Tammiharju à partir de 1962 à 1967, à l'Hôpital Hesperia de 1967 à 1969 et comme médecin-chef au Veikkola Sanatorium de 1969 à 1973. Sa carrière d'écrivain a commencé en 1962 avec un recueil de poésie. Dans l'ensemble, son travail comprend plus de vingt  recueils de poésie, de l'ouïe et de spectacles ainsi que quelques œuvres de prose. Ses œuvres ont été traduites et publiées en sept langues. Claes Andersson y exerce la critique sociale, appelant carences humaines et sociales, souvent accentuée avec des détails médicaux.
+Claes Andersson a aussi été actif politiquement. De 1987 à 1999, puis de 2007 à 2008, il siégea au Parlement finlandais, d'abord pour la Ligue démocratique du peuple finlandais et ensuite pour l'Alliance de gauche, dont il fut le porte-parole de 1990 à 1998. En tant que candidat à l'élection présidentielle finlandaise de 1994, il a reçu 3,8 % de votes. De 1995 à 1999, il a été ministre de la Culture de la Finlande. En 2008, il a quitté le Parlement pour des raisons de santé.
 Claes Andersson est également un pianiste de jazz reconnu. Il vit à Espoo. Il y décède le 24 juillet 2019.
 </t>
         </is>
@@ -547,7 +561,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Poésie
+          <t>Poésie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Ventil, 1962
 Som om ingenting hänt, 1964
 Staden heter Helsingfors, 1965
@@ -572,7 +592,43 @@
 Tidens framfart, 2005
 Die Stadt heißt Helsinki, 2007,  (ISBN 3-936271-29-1)
 Lust, 2008
-Prose
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Claes_Andersson</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claes_Andersson</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Prose</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Bakom bilderna, 1972
 Den fagraste vår, 1976
 En mänska börjar likna sin själ, 1983
@@ -580,37 +636,74 @@
 Har du sett öknen blomma?, 2006
 Varje slag mitt hjärta slår, 2009
 Guds Profetiska Plan, 2009,  (ISBN 1-4392-2568-0)
-Disques de jazz
-Claes Andersson Trio: These foolish things - Jazz!, Long Play Records, 2002
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Claes_Andersson</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claes_Andersson</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Disques de jazz</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Claes Andersson Trio: These foolish things - Jazz!, Long Play Records, 2002
 Claes Anderssons Orkester: Guldplattan, Alvia Records, 2005</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Claes_Andersson</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Claes_Andersson</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Prix et récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 1986 : prix Eino-Leino
